--- a/step2-analysis/All.xlsx
+++ b/step2-analysis/All.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hikk\Desktop\gnn-parallel-project\step2-analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="13890" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13896" windowHeight="12408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,41 +19,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>节点操作1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>图操作1</t>
-  </si>
-  <si>
-    <t>激活函数1</t>
-  </si>
-  <si>
-    <t>节点操作2</t>
   </si>
   <si>
     <t>图操作2</t>
   </si>
   <si>
-    <t>激活函数2</t>
+    <t>采样操作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>损失函数</t>
+    <t>采样操作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点操作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点操作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000000000_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,345 +59,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -403,255 +89,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,69 +105,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -753,12 +156,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="2400">
+              <a:rPr lang="en-US" altLang="en-US" sz="2400">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Medium10_d</a:t>
+              <a:t>Medium10</a:t>
             </a:r>
             <a:endParaRPr lang="" altLang="en-US" sz="2400">
               <a:solidFill>
@@ -772,8 +175,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00227289946208046"/>
-          <c:y val="0.912618796198522"/>
+          <c:x val="3.8041846030633694E-2"/>
+          <c:y val="0.90676951683002682"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -784,6 +187,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -792,10 +212,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0401210379997549"/>
-          <c:y val="0.172413487133984"/>
-          <c:w val="0.604282425172678"/>
-          <c:h val="0.698651286601597"/>
+          <c:x val="4.0121037999754902E-2"/>
+          <c:y val="0.17241348713398399"/>
+          <c:w val="0.60428242517267805"/>
+          <c:h val="0.69865128660159703"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -804,18 +224,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Pubmed"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pubmed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pubmed</c:v>
           </c:tx>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -856,6 +266,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -897,6 +312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -938,6 +358,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -979,6 +404,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1020,6 +450,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1061,6 +496,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1106,14 +546,19 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0581053405093283"/>
-                  <c:y val="0.197046737982645"/>
+                  <c:x val="-5.81053405093283E-2"/>
+                  <c:y val="0.19704673798264499"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1127,14 +572,17 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0112024879224403"/>
-                  <c:y val="0.0498286982944319"/>
+                  <c:x val="1.12024879224403E-2"/>
+                  <c:y val="4.98286982944319E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1148,14 +596,17 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0107287170846716"/>
-                  <c:y val="0.182526617000962"/>
+                  <c:x val="-1.07287170846716E-2"/>
+                  <c:y val="0.18252661700096201"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1169,14 +620,17 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0303434712147193"/>
-                  <c:y val="-0.0575147877432963"/>
+                  <c:x val="-3.0343471214719302E-2"/>
+                  <c:y val="-5.7514787743296297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1190,14 +644,17 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.328347318496899"/>
-                  <c:y val="-0.0415927240461402"/>
+                  <c:x val="0.32834731849689902"/>
+                  <c:y val="-4.15927240461402E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1211,14 +668,17 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0492520977745348"/>
-                  <c:y val="-0.0133096716947649"/>
+                  <c:x val="4.9252097774534799E-2"/>
+                  <c:y val="-1.33096716947649E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1231,6 +691,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1259,6 +722,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1269,85 +733,83 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>节点操作1</c:v>
+                  <c:v>采样操作1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>图操作1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>激活函数1</c:v>
+                  <c:v>节点操作1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>节点操作2</c:v>
+                  <c:v>采样操作2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>图操作2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>激活函数2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>损失函数</c:v>
+                  <c:v>节点操作2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000000_ </c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00199341773986816</c:v>
+                  <c:v>5.0517559051513602E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0110025405883789</c:v>
+                  <c:v>7.7056646347045898E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000133991241455078</c:v>
+                  <c:v>1.92117691040039E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.866455078125e-5</c:v>
+                  <c:v>6.3214302062988203E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0372126102447509</c:v>
+                  <c:v>0.14383244514465299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000110387802124023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.00910878181457519</c:v>
+                  <c:v>5.9223175048828103E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1389,6 +851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1411,6 +874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1433,6 +897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1455,6 +920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1462,8 +928,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.722637723458592"/>
-          <c:y val="0.0253992901508429"/>
+          <c:x val="0.72263772345859201"/>
+          <c:y val="2.5399290150842899E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1491,6 +957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1520,6 +987,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2084,28 +1552,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
+      <xdr:colOff>582295</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1813560" y="2400300"/>
-        <a:ext cx="6996430" cy="5725160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2370,83 +1838,76 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="18.75" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.0517559051513602E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.00199341773986816</v>
+      <c r="B3" s="2">
+        <v>7.7056646347045898E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.0110025405883789</v>
+      <c r="B4" s="2">
+        <v>1.92117691040039E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.000133991241455078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6.866455078125e-5</v>
+        <v>6.3214302062988203E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.14383244514465299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.0372126102447509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" s="2">
-        <v>0.000110387802124023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.00910878181457519</v>
+        <v>5.9223175048828103E-4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/step2-analysis/All.xlsx
+++ b/step2-analysis/All.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>图操作1</t>
   </si>
@@ -161,7 +161,7 @@
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Medium10</a:t>
+              <a:t>Medium10_d</a:t>
             </a:r>
             <a:endParaRPr lang="" altLang="en-US" sz="2400">
               <a:solidFill>
@@ -175,7 +175,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.8041846030633694E-2"/>
+          <c:x val="4.2046250875963559E-2"/>
           <c:y val="0.90676951683002682"/>
         </c:manualLayout>
       </c:layout>
@@ -557,8 +557,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.81053405093283E-2"/>
-                  <c:y val="0.19704673798264499"/>
+                  <c:x val="-1.0052475045384569E-2"/>
+                  <c:y val="3.8270807950391832E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -581,8 +581,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.12024879224403E-2"/>
-                  <c:y val="4.98286982944319E-2"/>
+                  <c:x val="1.3204761458076399E-2"/>
+                  <c:y val="-6.8531668818533939E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -605,8 +605,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.07287170846716E-2"/>
-                  <c:y val="0.18252661700096201"/>
+                  <c:x val="1.3297777161176361E-2"/>
+                  <c:y val="2.0863868633048937E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -629,8 +629,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0343471214719302E-2"/>
-                  <c:y val="-5.7514787743296297E-2"/>
+                  <c:x val="-3.8352266233013799E-2"/>
+                  <c:y val="0.10992162353839709"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -689,9 +689,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-90E0-4DEF-AFD4-F5F2EBFEC5B3}"/>
                 </c:ext>
@@ -785,22 +783,22 @@
                 <c:formatCode>0.000000000000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0517559051513602E-2</c:v>
+                  <c:v>6.5262317657470703E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7056646347045898E-2</c:v>
+                  <c:v>5.6841373443603498E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.92117691040039E-3</c:v>
+                  <c:v>3.7288665771484299E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3214302062988203E-3</c:v>
+                  <c:v>9.9725723266601493E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14383244514465299</c:v>
+                  <c:v>3.5552501678466103E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9223175048828103E-4</c:v>
+                  <c:v>1.08718872070312E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,15 +1554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>853440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>582295</xdr:colOff>
+      <xdr:colOff>597535</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1844,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>5.0517559051513602E-2</v>
+        <v>6.5262317657470703E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>7.7056646347045898E-2</v>
+        <v>5.6841373443603498E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1.92117691040039E-3</v>
+        <v>3.7288665771484299E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6.3214302062988203E-3</v>
+        <v>9.9725723266601493E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +1891,8 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>0.14383244514465299</v>
+        <f>B8-B2-B3-B4</f>
+        <v>3.5552501678466103E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1900,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>5.9223175048828103E-4</v>
+        <v>1.08718872070312E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.106871843338012</v>
       </c>
     </row>
   </sheetData>
